--- a/SecondProject/Com2_BidAsk13.xlsx
+++ b/SecondProject/Com2_BidAsk13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Historical data\Second Paper Data\Bid&amp;Ask Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C309A-F3F3-446E-852D-4AC752E6995F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A4CDEA-2FD3-4525-9D8C-C040D40FC7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{AC8F5EAC-2BBB-45B6-879E-C72E164D7D7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{AC8F5EAC-2BBB-45B6-879E-C72E164D7D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -323,20 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F1054E-E800-49F7-837F-04650C4D2364}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -693,10 +684,10 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>0.28115783950827439</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -710,10 +701,10 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>0.170443270449464</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -727,10 +718,10 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>0.1579437072451142</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -744,10 +735,10 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0.14141585182714081</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -761,10 +752,10 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>0.20978234247658969</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -778,10 +769,10 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0.27897716896372521</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -795,10 +786,10 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0.2447417329754564</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -812,10 +803,10 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>0.48119869965718592</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -829,10 +820,10 @@
       <c r="C10">
         <v>8.1986107517242557E-2</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.24784879853028319</v>
       </c>
     </row>
@@ -846,10 +837,10 @@
       <c r="C11">
         <v>0.36648253737258912</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.46146259645590831</v>
       </c>
     </row>
@@ -863,10 +854,10 @@
       <c r="C12">
         <v>0.5752707872581484</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.30770117201818131</v>
       </c>
     </row>
@@ -880,10 +871,10 @@
       <c r="C13">
         <v>0.67785179425430298</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.41010974308380499</v>
       </c>
     </row>
@@ -897,10 +888,10 @@
       <c r="C14">
         <v>1.6704669277198789</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.4139728455172953</v>
       </c>
     </row>
@@ -914,10 +905,10 @@
       <c r="C15">
         <v>1.260647941937256</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.54293185048516779</v>
       </c>
     </row>
@@ -931,10 +922,10 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>0.44973485722108009</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
@@ -948,10 +939,10 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0.47269303824960762</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -965,10 +956,10 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>1.0659866382588929</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -982,10 +973,10 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>1.044730497734593</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -999,10 +990,10 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>1.0428127385905379</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -1016,10 +1007,10 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>1.150747793204659</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -1033,10 +1024,10 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>1.019055200635067</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -1050,10 +1041,10 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>1.0484838261335869</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -1067,10 +1058,10 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>0.88502141645805277</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -1084,10 +1075,10 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>0.25694329266632487</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -1134,16 +1125,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>0.60869872619546506</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.7083891019387748</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -1151,16 +1142,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>1.5412311485816961</v>
       </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.2228984954465606</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -1168,16 +1159,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>1.5278846040373231</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.2121400340175035</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -1185,16 +1176,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>1.511882534794617</v>
       </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.20053266525141061</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -1202,16 +1193,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>1.6368929701664729</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.17138803068077041</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -1219,16 +1210,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>1.1820535476284031</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.25409805586348988</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -1236,16 +1227,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>0.13159181932220501</v>
       </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.65297451521643846</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -1256,13 +1247,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>0.20667705714813209</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.33388728672919521</v>
       </c>
     </row>
@@ -1270,16 +1261,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>0.97257839496307386</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.26197872617242712</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -1287,16 +1278,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>3.5454268850326758E-2</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.23581464675064451</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -1307,13 +1298,13 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>0.63063457473754925</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.24675894443943999</v>
       </c>
     </row>
@@ -1321,16 +1312,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.75728334970855715</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.33376290915271151</v>
       </c>
     </row>
@@ -1338,16 +1329,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1.50371105308075</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.41443402228311749</v>
       </c>
     </row>
@@ -1355,16 +1346,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.61481715823150596</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41722523294793601</v>
       </c>
     </row>
@@ -1372,16 +1363,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.25111526127014211</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.41792648890836959</v>
       </c>
     </row>
@@ -1389,16 +1380,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>0.53236820795898399</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>1.0843141528654641</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -1406,16 +1397,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>0.74479812746643115</v>
       </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.1545537791879601</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -1423,16 +1414,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>1.579649048530579</v>
       </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.0368598278980941</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -1440,16 +1431,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>1.6573102656631471</v>
       </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.0121315528210419</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -1457,16 +1448,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>1.6267071921615599</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.024057608727394</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -1474,16 +1465,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>1.554347038269043</v>
       </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0.94426766128487516</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -1491,16 +1482,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>1.3166191577911379</v>
       </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.0403425512492761</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -1508,16 +1499,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>1.3990254306930541</v>
       </c>
-      <c r="C24" s="10">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.78988825799231999</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -1525,16 +1516,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>0.81659748839337154</v>
       </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.77316436017579149</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -1580,10 +1571,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>1.5462084180946349</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
@@ -1597,10 +1588,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>1.4974184330324549</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
@@ -1614,10 +1605,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>1.4730075597763059</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
@@ -1631,10 +1622,10 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>1.468314528465271</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
@@ -1648,10 +1639,10 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>0.86139696836471558</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
@@ -1665,10 +1656,10 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>0.76555606847000124</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
@@ -1682,10 +1673,10 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>0.77375072312545778</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
@@ -1699,10 +1690,10 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>0.33375327945709232</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
@@ -1719,7 +1710,7 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>7.7675332973480282E-2</v>
       </c>
       <c r="D10">
@@ -1733,10 +1724,10 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.36884067362213152</v>
       </c>
       <c r="D11">
@@ -1750,10 +1741,10 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.5805304445838928</v>
       </c>
       <c r="D12">
@@ -1767,10 +1758,10 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.68816221292114288</v>
       </c>
       <c r="D13">
@@ -1784,10 +1775,10 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1.6375176211647029</v>
       </c>
       <c r="D14">
@@ -1801,10 +1792,10 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>1.158400197235413</v>
       </c>
       <c r="D15">
@@ -1818,10 +1809,10 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>1.632784742762756</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
@@ -1835,10 +1826,10 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>2.1220559916549679</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
@@ -1852,10 +1843,10 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>0.51379815765380898</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
@@ -1869,10 +1860,10 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>0.49170836986816402</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
@@ -1886,10 +1877,10 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>0.41950643369293178</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
@@ -1903,10 +1894,10 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>0.42701002402343791</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
@@ -1920,10 +1911,10 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>1.138594150543212</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
@@ -1937,10 +1928,10 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>1.211016893386841</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
@@ -1954,10 +1945,10 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>1.4047584910644531</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
@@ -1971,10 +1962,10 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>1.712074038994446</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
@@ -1993,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4F04F0-6107-411D-86F9-6016784DFFB6}">
   <dimension ref="A7:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2027,10 +2018,10 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>1.7246125413948059</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
@@ -2044,10 +2035,10 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>1.650491078035736</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
@@ -2061,10 +2052,10 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>1.6240667104721069</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
@@ -2078,10 +2069,10 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>1.6155139803886409</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
@@ -2095,10 +2086,10 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>0.98703697323799133</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
@@ -2112,10 +2103,10 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>0.90948785496521001</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
@@ -2129,10 +2120,10 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>0.87404800873565691</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
@@ -2146,10 +2137,10 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>0.40663375762939491</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
@@ -2166,7 +2157,7 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>9.8011045379642336E-3</v>
       </c>
       <c r="D16">
@@ -2180,10 +2171,10 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0.35715613206481911</v>
       </c>
       <c r="D17">
@@ -2197,10 +2188,10 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.62012043460845923</v>
       </c>
       <c r="D18">
@@ -2214,10 +2205,10 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0.70131816454315232</v>
       </c>
       <c r="D19">
@@ -2231,10 +2222,10 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1.6928532004760739</v>
       </c>
       <c r="D20">
@@ -2248,10 +2239,10 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1.193053663723755</v>
       </c>
       <c r="D21">
@@ -2265,10 +2256,10 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>1.6754138171594239</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
@@ -2282,10 +2273,10 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>2.3324232363916022</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
@@ -2299,10 +2290,10 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>0.84209775895446803</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
@@ -2316,10 +2307,10 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>0.78589148800964392</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
@@ -2333,10 +2324,10 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>0.68415108335418695</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
@@ -2350,10 +2341,10 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27">
         <v>0.54713558431701714</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
@@ -2367,10 +2358,10 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28">
         <v>1.2857866883277891</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
@@ -2384,10 +2375,10 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29">
         <v>1.264999985694885</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
@@ -2401,10 +2392,10 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30">
         <v>1.4088979390161129</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
@@ -2418,10 +2409,10 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31">
         <v>1.858194646172791</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
@@ -2441,7 +2432,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2474,10 +2465,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>0.50193644976760865</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
@@ -2491,10 +2482,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>1.505592344859161</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
@@ -2508,10 +2499,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>1.487297445433426</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
@@ -2525,10 +2516,10 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>1.483314956470108</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
@@ -2542,10 +2533,10 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>1.5839743054644779</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
@@ -2559,10 +2550,10 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>1.1787473175811769</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
@@ -2576,10 +2567,10 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>0.80349523571014403</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
@@ -2593,10 +2584,10 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>0.3675022496223449</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
@@ -2613,7 +2604,7 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>7.245326301574706E-2</v>
       </c>
       <c r="D10">
@@ -2627,10 +2618,10 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.41065535617828369</v>
       </c>
       <c r="D11">
@@ -2644,10 +2635,10 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.64735502424240132</v>
       </c>
       <c r="D12">
@@ -2661,10 +2652,10 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.76209564270019547</v>
       </c>
       <c r="D13">
@@ -2678,10 +2669,10 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1.694771876068115</v>
       </c>
       <c r="D14">
@@ -2695,10 +2686,10 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>1.2373691766128541</v>
       </c>
       <c r="D15">
@@ -2712,10 +2703,10 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>1.5711161797515869</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
@@ -2729,10 +2720,10 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>1.6693272424545289</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
@@ -2746,10 +2737,10 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>0.65413677371765089</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
@@ -2763,10 +2754,10 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>0.61242803325561501</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
@@ -2780,10 +2771,10 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>0.5154108849639889</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
@@ -2797,10 +2788,10 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>0.65144396541595406</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
@@ -2814,10 +2805,10 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>1.431851983070374</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
@@ -2831,10 +2822,10 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>1.212226390838623</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
@@ -2848,10 +2839,10 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>1.270223079841766</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
@@ -2865,10 +2856,10 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>0.65416130529434202</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
@@ -2921,16 +2912,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.46396100662751771</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>0.319494951701146</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -2938,16 +2929,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1.433094263957214</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.2144496420466605</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -2955,16 +2946,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1.4160290318321229</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.20389809105409859</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -2972,16 +2963,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1.4196117340881349</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.1893190031790063</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -2989,16 +2980,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1.5331808326850891</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.16091197705260851</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -3006,16 +2997,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1.092147589971542</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.23915662747856581</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -3026,13 +3017,13 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.16384773315887491</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.33348842651992372</v>
       </c>
     </row>
@@ -3043,13 +3034,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0.46009813060379018</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.53260952974471232</v>
       </c>
     </row>
@@ -3057,16 +3048,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.022547148687744</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.2312188297992166</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -3074,16 +3065,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>0.72955401832199085</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.26427356030832622</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -3094,13 +3085,13 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0.4266527690505979</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.24937851899311589</v>
       </c>
     </row>
@@ -3108,16 +3099,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.52647626931762725</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.33139033620262448</v>
       </c>
     </row>
@@ -3125,16 +3116,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1.3117051564804081</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.41321458377395331</v>
       </c>
     </row>
@@ -3142,16 +3133,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.207733021930847</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41328759841317653</v>
       </c>
     </row>
@@ -3159,16 +3150,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.191241186336365</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.41235172133182552</v>
       </c>
     </row>
@@ -3176,16 +3167,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>0.39785962553588877</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.47716433328348862</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -3193,16 +3184,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>0.50454043718872088</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0.55874750215863811</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -3210,16 +3201,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>1.009057945135116</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.284910319597333</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -3227,16 +3218,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>1.3011192882843019</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.057692339521159</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -3244,16 +3235,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>1.3172320310897829</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.0486342630140379</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -3261,16 +3252,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>1.319111704826355</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0.9353388789386925</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -3278,16 +3269,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>1.115198969841003</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.0508223493895661</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -3295,16 +3286,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>1.200478461408234</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.75573660515464613</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -3312,16 +3303,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>0.61401257256362918</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.31736181544638109</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -3368,16 +3359,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>0.5064054072022095</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.71357313106363252</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -3385,16 +3376,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1.484124149843979</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.19934746189932079</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -3402,16 +3393,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1.459703501908493</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.188787863509571</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -3419,16 +3410,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>1.4548998223612211</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.17454263329446479</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -3436,16 +3427,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>1.5499007044120789</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.14856864847456239</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -3453,16 +3444,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>1.078547508766174</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.22257969003269659</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -3470,16 +3461,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>8.1286233758544935E-2</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.58822219857374103</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -3490,13 +3481,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>0.2454907398852538</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.33101832526891489</v>
       </c>
     </row>
@@ -3504,16 +3495,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>1.069889529256439</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.1895122527862384</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -3521,16 +3512,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.230419894996643</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.41949655416303699</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -3541,13 +3532,13 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>0.40082857986450188</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.37121081880221812</v>
       </c>
     </row>
@@ -3555,16 +3546,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.48303831155395538</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.50550167860848483</v>
       </c>
     </row>
@@ -3572,16 +3563,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.56267731830596923</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.57658856510812784</v>
       </c>
     </row>
@@ -3589,16 +3580,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.13438154880523709</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41403586952848931</v>
       </c>
     </row>
@@ -3606,16 +3597,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.31701634098419201</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.41342927138556579</v>
       </c>
     </row>
@@ -3623,16 +3614,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>0.22581259764251699</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>1.04707641086133</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -3640,16 +3631,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>0.46752679617828402</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.223561169079189</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -3657,16 +3648,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>0.44982585645751988</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.2409207219866509</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -3674,16 +3665,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>0.92193179376792878</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.2195442925554929</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -3691,16 +3682,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>1.289792794448853</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.0154590841243909</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -3708,16 +3699,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>1.2536524534225459</v>
       </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0.92309666566018933</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -3725,16 +3716,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>1.056370615959167</v>
       </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.0050323441520681</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -3742,16 +3733,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>1.1252322479887391</v>
       </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.74608334806334276</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -3759,16 +3750,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>0.55390992931466676</v>
       </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.76708120875773578</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -3815,16 +3806,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>1.62486449745636</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.28316720903895942</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -3832,16 +3823,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1.5633103408439639</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.17118713755242809</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -3849,16 +3840,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1.5200264494171141</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.16069018062774709</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -3866,16 +3857,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>1.5058883467723081</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.14588952092558841</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -3883,16 +3874,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.91218331456184387</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.21161399214888951</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -3900,16 +3891,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.80147204906845093</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.26622608022290972</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -3920,13 +3911,13 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>0.133293096780396</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.33071511179794177</v>
       </c>
     </row>
@@ -3937,13 +3928,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>0.53585679985198986</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.58273368821516214</v>
       </c>
     </row>
@@ -3951,16 +3942,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>1.0540764860244749</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.19036808086147081</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -3968,16 +3959,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.80866731825317384</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.19586184513950541</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -3988,13 +3979,13 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>0.30988635532975223</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.28646921225168798</v>
       </c>
     </row>
@@ -4002,16 +3993,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.50076323558044433</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.46698190719243171</v>
       </c>
     </row>
@@ -4019,16 +4010,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.56379421724319467</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.41298508873082151</v>
       </c>
     </row>
@@ -4036,16 +4027,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.26453854087829592</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41602193291854378</v>
       </c>
     </row>
@@ -4053,16 +4044,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.6782503840461731</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.41491235684919942</v>
       </c>
     </row>
@@ -4070,16 +4061,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0.15645471065139771</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0.49841852802167252</v>
       </c>
     </row>
@@ -4087,16 +4078,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>0.11506319046020511</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.185684370325655</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -4104,16 +4095,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>0.26105599149322511</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.1090021622740891</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -4121,16 +4112,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>0.84777884834671036</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.2058434182935149</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -4138,16 +4129,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>1.2797249851074219</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.14663641437179</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -4155,16 +4146,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>1.2952721118927</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>1.011982762637931</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -4172,16 +4163,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>1.065398573875427</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.124465251094783</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -4189,16 +4180,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>0.80148905515670776</v>
       </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.89181265561341072</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -4206,16 +4197,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>1.6218869074266049</v>
       </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.25877954671620729</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -4261,10 +4252,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>0.32458206987380989</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
@@ -4278,10 +4269,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>1.553333162921906</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
@@ -4295,10 +4286,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>1.512438713109741</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
@@ -4312,10 +4303,10 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>1.5117919499198911</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
@@ -4329,10 +4320,10 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>1.6540833799736021</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
@@ -4346,10 +4337,10 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>1.4283969908676151</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
@@ -4366,7 +4357,7 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>0.1646668705490113</v>
       </c>
       <c r="D8">
@@ -4383,7 +4374,7 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>0.51534853547439574</v>
       </c>
       <c r="D9">
@@ -4397,10 +4388,10 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1.148929923441772</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
@@ -4414,10 +4405,10 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>0.90945722290802011</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
@@ -4434,7 +4425,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>0.1595587938594818</v>
       </c>
       <c r="D12">
@@ -4448,10 +4439,10 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.30224536938476548</v>
       </c>
       <c r="D13">
@@ -4465,10 +4456,10 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.33952950340270988</v>
       </c>
       <c r="D14">
@@ -4482,10 +4473,10 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>7.6161575946807725E-2</v>
       </c>
       <c r="D15">
@@ -4499,10 +4490,10 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.41659056442260728</v>
       </c>
       <c r="D16">
@@ -4516,10 +4507,10 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>8.000515642547612E-2</v>
       </c>
       <c r="D17">
@@ -4533,10 +4524,10 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>0.130375862121582</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
@@ -4550,10 +4541,10 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>0.154001469177246</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
@@ -4567,10 +4558,10 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>0.7027047202930452</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
@@ -4584,10 +4575,10 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1.1515314986572269</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
@@ -4601,10 +4592,10 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>1.169821619987488</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
@@ -4618,10 +4609,10 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>0.95491135120391846</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
@@ -4635,10 +4626,10 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>0.77982163429260254</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
@@ -4652,10 +4643,10 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>0.29205456352233899</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
@@ -4708,16 +4699,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1.5283983902357481</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.30409604503240739</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -4725,16 +4716,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>1.4657229079174039</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.18611065268399529</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -4742,16 +4733,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>1.4443418681621549</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.17440162402224879</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -4759,16 +4750,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1.430776387453079</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.16040927421661449</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -4776,16 +4767,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>0.83004200458526611</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.24664893447344191</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -4793,16 +4784,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>0.73775824048995975</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.31255934560479942</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -4810,16 +4801,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.72922099378585814</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.33518797764308189</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -4827,16 +4818,16 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>0.24378065004348751</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.57938086351425866</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -4847,13 +4838,13 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>0.22321057579040529</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.24787549331528469</v>
       </c>
     </row>
@@ -4861,16 +4852,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.55367312503814703</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.3931581419649009</v>
       </c>
     </row>
@@ -4878,16 +4869,16 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.76940274658203145</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.24681937563726439</v>
       </c>
     </row>
@@ -4895,16 +4886,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.83827788890838639</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.3304800060756643</v>
       </c>
     </row>
@@ -4912,16 +4903,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1.78369077695816</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.41288997585094778</v>
       </c>
     </row>
@@ -4929,16 +4920,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>1.2897787962387079</v>
       </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41569169497611719</v>
       </c>
     </row>
@@ -4946,16 +4937,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1.6031655403594971</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0.56186951159531084</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
@@ -4963,16 +4954,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>2.0670775894439699</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0.55675829350404793</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -4980,16 +4971,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>0.58830846930389402</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.110501771320979</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -4997,16 +4988,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>0.57513992944946291</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.1247544911851131</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -5014,16 +5005,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>0.48999950473632781</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.1318119907061699</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -5031,16 +5022,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>0.4579585894537348</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.1162008737608149</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -5048,16 +5039,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>1.2836156934499741</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0.99706484519209493</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -5065,16 +5056,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>1.20513379573822</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.0493985709996061</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -5082,16 +5073,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>1.22535717477951</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.88689682516051038</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -5099,16 +5090,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>1.630206402162933</v>
       </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.25423008429124028</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -5155,16 +5146,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>0.68245681970697025</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.75898594411807074</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -5172,16 +5163,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>1.65643581976471</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.20322382485395579</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -5189,16 +5180,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>1.630715619473267</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.19272658770948101</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -5206,16 +5197,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>1.6127127881278991</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.1800826148433903</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -5223,16 +5214,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>1.6843714234039311</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.15710596207654931</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -5240,16 +5231,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>1.139003069450379</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.24487700424572281</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -5257,16 +5248,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>0.85352575850677492</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.33520484456102789</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -5274,16 +5265,16 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>0.48231356502533013</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.48110192441795763</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -5291,16 +5282,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>9.4841728260040226E-2</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.2389251501970964</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -5311,13 +5302,13 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>0.17852351969146721</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.24729693905959449</v>
       </c>
     </row>
@@ -5325,16 +5316,16 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.38657484432220501</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.24697778926492009</v>
       </c>
     </row>
@@ -5342,16 +5333,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.49721170003509529</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.3307090016647341</v>
       </c>
     </row>
@@ -5359,16 +5350,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1.4453191689361571</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.41238566352314909</v>
       </c>
     </row>
@@ -5376,16 +5367,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>1.0826340472802729</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41257204780873241</v>
       </c>
     </row>
@@ -5393,16 +5384,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>-1.635036489015198</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>0.50004541822841253</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
@@ -5410,16 +5401,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>2.1472654047790529</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0.46743979640302868</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -5427,16 +5418,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>0.78647750046081499</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.0945599401106181</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -5444,16 +5435,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>0.59415361726196281</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.1790193526283119</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -5461,16 +5452,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>0.43113428227844192</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.180201365144901</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -5478,16 +5469,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>0.3630123917962651</v>
       </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.254480968977274</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -5495,16 +5486,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>0.80973124504089333</v>
       </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>1.0418565581850769</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -5512,16 +5503,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>1.1744580268859861</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.0519928380325441</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -5529,16 +5520,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>1.235787571380615</v>
       </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.79477167012819716</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -5546,16 +5537,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>0.74414292544436644</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.74367326455376359</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -5602,16 +5593,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2">
         <v>1.682450073308563</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.35751150114346752</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -5619,16 +5610,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>1.637265509992218</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.2195316838752025</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -5636,16 +5627,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>1.601489458487702</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.21144000060689941</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -5653,16 +5644,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>1.5865150666551211</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.19959262114296039</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -5670,16 +5661,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>0.95378941297531128</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.30506432660335597</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -5687,16 +5678,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>0.8268575880813599</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.40315338155411651</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -5704,16 +5695,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>0.82359642532348609</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.44372995443380853</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -5721,16 +5712,16 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>0.36199013128280633</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.57656569504772948</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -5741,13 +5732,13 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>2.8989913673400869E-2</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.24971730846996321</v>
       </c>
     </row>
@@ -5755,16 +5746,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.34520170761108399</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.24821360279943139</v>
       </c>
     </row>
@@ -5772,16 +5763,16 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.53533280315399212</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.29597053902992448</v>
       </c>
     </row>
@@ -5789,16 +5780,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.63677175106048622</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.40343154800289321</v>
       </c>
     </row>
@@ -5806,16 +5797,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.82275543230590786</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.51840191487972453</v>
       </c>
     </row>
@@ -5823,16 +5814,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.33501312191619892</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41338123862496018</v>
       </c>
     </row>
@@ -5840,16 +5831,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>1.41521018037796</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0.65131448920553703</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
@@ -5857,16 +5848,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>1.5286246035385129</v>
       </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0.78056250150409245</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -5874,16 +5865,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>0.98268258762207006</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1.121180945121921</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -5891,16 +5882,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>0.8729040925231929</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.147761438248063</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -5908,16 +5899,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>0.70930646635955796</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.1787520913178049</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -5925,16 +5916,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>0.57324952000732388</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.145800170408249</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -5942,16 +5933,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>0.96125814318656899</v>
       </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>1.016728544693065</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -5959,16 +5950,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>1.2716681957244871</v>
       </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.045575200629467</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -5976,16 +5967,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>1.3464514937667851</v>
       </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.85784291735797091</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -5993,16 +5984,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>1.7910993271537781</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.31309473469840082</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -6049,16 +6040,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2">
         <v>0.63752839150875851</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.67624322992846631</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
@@ -6066,16 +6057,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>1.561702977778626</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.17638805217434139</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -6083,16 +6074,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>1.533196452625275</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.16468448429126001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -6100,16 +6091,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>1.5161389714714051</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.15039023593663611</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -6117,16 +6108,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>1.612798335227966</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.1249441072858381</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
@@ -6134,16 +6125,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>1.101314138483048</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.18345885809845289</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -6151,16 +6142,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>0.15170052086639399</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.61986181382012162</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -6171,13 +6162,13 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>9.9945204915618979E-2</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.33227770807890411</v>
       </c>
     </row>
@@ -6185,16 +6176,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>1.0088831728858949</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.1577204771778602</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -6205,13 +6196,13 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>3.9815541489601119E-2</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.24822743810816919</v>
       </c>
     </row>
@@ -6219,16 +6210,16 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.43621464111328151</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.24734208742364269</v>
       </c>
     </row>
@@ -6236,16 +6227,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.50772434283447265</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.33316978877294823</v>
       </c>
     </row>
@@ -6253,16 +6244,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.5160915471458436</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>0.41441506071993178</v>
       </c>
     </row>
@@ -6270,16 +6261,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.18057651762008661</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.41691155228844662</v>
       </c>
     </row>
@@ -6287,16 +6278,16 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.57602097255569462</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.41385026796479202</v>
       </c>
     </row>
@@ -6304,16 +6295,16 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>7.3195587178039534E-2</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0.49771481502544918</v>
       </c>
     </row>
@@ -6321,16 +6312,16 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>0.15934556762176491</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0.93808281239046687</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
@@ -6338,16 +6329,16 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>0.25118054422607411</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>0.90667553928395128</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -6355,16 +6346,16 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>0.82467406147384592</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1.079890733509153</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -6372,16 +6363,16 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>1.2447673377838131</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1.042957230893967</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -6389,16 +6380,16 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>1.246190190315247</v>
       </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0.95821987537019759</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
@@ -6406,16 +6397,16 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>1.07420289516449</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1.0594169728682941</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -6423,16 +6414,16 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>1.179530386170196</v>
       </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.76697725690589125</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
@@ -6440,16 +6431,16 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>0.63538313371966548</v>
       </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0.66053663270417096</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
